--- a/掲示板サイト改.xlsx
+++ b/掲示板サイト改.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsuji.hikaru\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09594C87-7F2F-43AA-9C7F-21C777C6E47B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19656E4-D7FC-4092-9245-8E1257432D6A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19812" windowHeight="8940" activeTab="1" xr2:uid="{04F12CFC-C716-4EEA-9115-757028B8E2BC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17676" windowHeight="8556" xr2:uid="{04F12CFC-C716-4EEA-9115-757028B8E2BC}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="126">
   <si>
     <t>ログイン画面</t>
     <rPh sb="4" eb="6">
@@ -231,13 +231,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>掲示板データ</t>
-    <rPh sb="0" eb="3">
-      <t>ケイジバン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>datetime</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -327,10 +320,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>boards</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>messages</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -388,25 +377,6 @@
   </si>
   <si>
     <t>tinyint</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>manager</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>管理者データ</t>
-    <rPh sb="0" eb="3">
-      <t>カンリシャ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>manager_id</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -579,24 +549,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>管理者ID</t>
-    <rPh sb="0" eb="3">
-      <t>カンリシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スレッドID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>掲示板名</t>
-    <rPh sb="0" eb="3">
-      <t>ケイジバン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -827,20 +780,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>manager_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>管理者名</t>
-    <rPh sb="0" eb="3">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>投稿削除</t>
     <rPh sb="0" eb="2">
       <t>トウコウ</t>
@@ -909,15 +848,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>black_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>configuration_day</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ブラックリストID</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -963,21 +894,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ラジオボタン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>userid</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>manader権限</t>
-    <rPh sb="7" eb="9">
-      <t>ケンゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
       <t>サクセイシャ</t>
@@ -985,10 +901,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>カテゴリ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>非機能</t>
     <rPh sb="0" eb="1">
       <t>ヒ</t>
@@ -1003,7 +915,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>サイドバー</t>
+    <t>manader</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スレッドのカテゴリー</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1058,7 +982,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1086,12 +1010,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1153,15 +1071,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1257,6 +1166,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1264,7 +1182,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1278,22 +1196,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
@@ -1308,13 +1226,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1322,16 +1239,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2866,7 +2777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2164F86A-158C-4E86-A721-FCABBFDC0AC2}">
   <dimension ref="H3:AZ17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="AM2" sqref="AM2"/>
     </sheetView>
   </sheetViews>
@@ -2887,14 +2798,14 @@
       <c r="J4" s="11"/>
       <c r="K4" s="12"/>
       <c r="T4" s="10" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="U4" s="11"/>
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
       <c r="X4" s="12"/>
       <c r="AG4" s="10" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="AH4" s="11"/>
       <c r="AI4" s="11"/>
@@ -2904,13 +2815,13 @@
       <c r="AM4" s="8"/>
       <c r="AN4" s="8"/>
       <c r="AU4" s="10" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="AV4" s="11"/>
       <c r="AW4" s="11"/>
       <c r="AX4" s="11"/>
       <c r="AY4" s="14"/>
-      <c r="AZ4" s="30"/>
+      <c r="AZ4" s="29"/>
     </row>
     <row r="5" spans="8:52" x14ac:dyDescent="0.45">
       <c r="AC5" s="8"/>
@@ -2948,7 +2859,7 @@
     </row>
     <row r="8" spans="8:52" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="Y8" s="10" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="Z8" s="11"/>
       <c r="AA8" s="11"/>
@@ -3070,9 +2981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83366922-2EA1-4C28-90D3-09856DAAB594}">
   <dimension ref="A2:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3081,7 +2990,7 @@
     <col min="4" max="4" width="37.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
@@ -3092,7 +3001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
@@ -3101,14 +3010,14 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B4" s="5"/>
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
@@ -3119,116 +3028,113 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B6" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B7" s="5"/>
       <c r="C7" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B8" s="4" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B9" s="7"/>
       <c r="C9" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B10" s="7"/>
       <c r="C10" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B11" s="5"/>
       <c r="C11" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B12" s="7" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B13" s="7"/>
       <c r="C13" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B14" s="7"/>
       <c r="C14" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B15" s="7"/>
       <c r="C15" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B16" s="5"/>
       <c r="C16" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B17" s="7" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B18" s="7"/>
       <c r="C18" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
@@ -3236,14 +3142,12 @@
         <v>10</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E19" s="36" t="s">
-        <v>138</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="E19" s="32"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="9"/>
@@ -3262,19 +3166,19 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B22" s="4" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B23" s="5"/>
       <c r="C23" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D23" s="2"/>
     </row>
@@ -3289,9 +3193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A8F9FB4-78B4-4578-92C6-715A63DBA2BD}">
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
-    </sheetView>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3309,7 +3211,7 @@
     <col min="13" max="13" width="4.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22.19921875" style="1" customWidth="1"/>
     <col min="15" max="15" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.3984375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="19.09765625" style="1" customWidth="1"/>
     <col min="17" max="17" width="8.796875" style="1"/>
     <col min="18" max="18" width="11.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
@@ -3325,37 +3227,26 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="R1" s="22"/>
-      <c r="T1" s="25"/>
+      <c r="T1" s="22"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B2" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>17</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="L2" s="17"/>
+        <v>110</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="L2" s="31"/>
       <c r="M2" s="17"/>
       <c r="N2" s="17"/>
       <c r="O2" s="17"/>
       <c r="P2" s="17"/>
-      <c r="R2" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="S2" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="T2" s="34"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B3" s="18" t="s">
@@ -3376,8 +3267,8 @@
       <c r="G3" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="29" t="s">
-        <v>80</v>
+      <c r="H3" s="28" t="s">
+        <v>74</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>18</v>
@@ -3397,29 +3288,8 @@
       <c r="O3" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="R3" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="S3" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="T3" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="U3" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="V3" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="W3" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="X3" s="29" t="s">
-        <v>80</v>
+      <c r="P3" s="28" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.45">
@@ -3440,45 +3310,22 @@
         <v>29</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="J4" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="35" t="s">
+      <c r="L4" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="P4" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="R4" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="S4" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="T4" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="U4" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="X4" s="19" t="s">
-        <v>124</v>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.45">
@@ -3495,37 +3342,22 @@
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
       <c r="H5" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="J5" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="R5" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S5" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="T5" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="19" t="s">
-        <v>83</v>
+        <v>109</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.45">
@@ -3542,55 +3374,26 @@
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
       <c r="H6" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="J6" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="K6" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="R6" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="S6" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="T6" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="19" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="26"/>
+        <v>64</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="25"/>
       <c r="H7" s="2" t="s">
-        <v>82</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="K7" s="22"/>
       <c r="R7" s="24"/>
       <c r="S7" s="24"/>
       <c r="T7" s="24"/>
@@ -3601,11 +3404,15 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B8" s="22" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C8" s="22"/>
       <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
+      <c r="K8" s="33"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A9" s="22"/>
@@ -3617,46 +3424,30 @@
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
       <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="B10" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>35</v>
+      <c r="B10" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>62</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
-      <c r="J10" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="K10" s="21" t="s">
-        <v>68</v>
+      <c r="J10" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
       <c r="N10" s="17"/>
       <c r="O10" s="17"/>
       <c r="P10" s="17"/>
-      <c r="R10" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="S10" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B11" s="18" t="s">
@@ -3677,8 +3468,8 @@
       <c r="G11" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="29" t="s">
-        <v>80</v>
+      <c r="H11" s="28" t="s">
+        <v>74</v>
       </c>
       <c r="J11" s="18" t="s">
         <v>18</v>
@@ -3698,34 +3489,13 @@
       <c r="O11" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="P11" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="R11" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="S11" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="T11" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="U11" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="V11" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="W11" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="X11" s="29" t="s">
-        <v>80</v>
+      <c r="P11" s="28" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B12" s="19" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>30</v>
@@ -3741,10 +3511,10 @@
         <v>29</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="K12" s="19" t="s">
         <v>30</v>
@@ -3760,34 +3530,15 @@
         <v>29</v>
       </c>
       <c r="P12" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="R12" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="S12" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="T12" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="U12" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="X12" s="19" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B13" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>51</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>54</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>27</v>
@@ -3796,13 +3547,13 @@
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
       <c r="H13" s="19" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="L13" s="19" t="s">
         <v>27</v>
@@ -3811,30 +3562,30 @@
       <c r="N13" s="19"/>
       <c r="O13" s="19"/>
       <c r="P13" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="R13" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="S13" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="B14" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="K14" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="T13" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="19"/>
-      <c r="X13" s="19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="J14" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" s="19" t="s">
-        <v>26</v>
       </c>
       <c r="L14" s="19" t="s">
         <v>27</v>
@@ -3843,30 +3594,30 @@
       <c r="N14" s="19"/>
       <c r="O14" s="19"/>
       <c r="P14" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="R14" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="S14" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="T14" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="B15" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="19"/>
-      <c r="X14" s="19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19" t="s">
+        <v>81</v>
+      </c>
       <c r="J15" s="19" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L15" s="19" t="s">
         <v>27</v>
@@ -3875,133 +3626,126 @@
       <c r="N15" s="19"/>
       <c r="O15" s="19"/>
       <c r="P15" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="R15" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="S15" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="T15" s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="B16" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19"/>
-      <c r="W15" s="19"/>
-      <c r="X15" s="19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19" t="s">
+        <v>125</v>
+      </c>
       <c r="J16" s="19" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="L16" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="M16" s="19"/>
+      <c r="M16" s="20"/>
       <c r="N16" s="19"/>
       <c r="O16" s="19"/>
       <c r="P16" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="R16" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="S16" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="T16" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B17" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="L17" s="19" t="s">
         <v>32</v>
-      </c>
-      <c r="U16" s="19"/>
-      <c r="V16" s="19"/>
-      <c r="W16" s="19"/>
-      <c r="X16" s="19" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="9:24" x14ac:dyDescent="0.45">
-      <c r="J17" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="K17" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="L17" s="19" t="s">
-        <v>27</v>
       </c>
       <c r="M17" s="19"/>
       <c r="N17" s="19"/>
       <c r="O17" s="19"/>
       <c r="P17" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="R17" s="19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B18" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="S17" s="19" t="s">
+      <c r="D18" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="J18" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="T17" s="19" t="s">
+      <c r="K18" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="L18" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19"/>
-      <c r="X17" s="19" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="9:24" x14ac:dyDescent="0.45">
-      <c r="J18" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K18" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="L18" s="19" t="s">
-        <v>74</v>
-      </c>
       <c r="M18" s="19"/>
-      <c r="N18" s="19" t="s">
-        <v>37</v>
-      </c>
+      <c r="N18" s="19"/>
       <c r="O18" s="19"/>
       <c r="P18" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="19" spans="9:24" x14ac:dyDescent="0.45">
-      <c r="I19" s="22"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-    </row>
-    <row r="20" spans="9:24" x14ac:dyDescent="0.45">
-      <c r="J20" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="21" spans="9:24" x14ac:dyDescent="0.45">
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="J21" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4019,7 +3763,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J1" s="8"/>
     </row>
@@ -4031,42 +3775,42 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
@@ -4076,42 +3820,42 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
